--- a/cet-web-app/backend/data/unique_colleges_with_city_CAP1_2025.xlsx
+++ b/cet-web-app/backend/data/unique_colleges_with_city_CAP1_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datasetcet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CET_Prediction\cet-web-app\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C972154C-E998-40C7-A527-2000383CDE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C1FA0-8E25-44E5-ACDE-21090D90A664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1246">
   <si>
     <t>Sr. No</t>
   </si>
@@ -2686,13 +2681,1090 @@
   </si>
   <si>
     <t>Lonavala,Pune</t>
+  </si>
+  <si>
+    <t>https://nietm.in/</t>
+  </si>
+  <si>
+    <t>www.alameencoe.org</t>
+  </si>
+  <si>
+    <t>https://www.kjei.edu.in/tcoer/</t>
+  </si>
+  <si>
+    <t>https://www.gcoej.ac.in/</t>
+  </si>
+  <si>
+    <t>https://sycet.org/</t>
+  </si>
+  <si>
+    <t>https://www.gwcet.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.sietghogaon.org/</t>
+  </si>
+  <si>
+    <t>https://www.xavier.ac.in/</t>
+  </si>
+  <si>
+    <t>https://abitkarcollegeofengineering.com/</t>
+  </si>
+  <si>
+    <t>https://www.coea.ac.in/</t>
+  </si>
+  <si>
+    <t>https://engg.sdncedu.com/</t>
+  </si>
+  <si>
+    <t>http://www.seti.edu.in/</t>
+  </si>
+  <si>
+    <t>https://prmceam.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.nmkcj.org.in/</t>
+  </si>
+  <si>
+    <t>https://www.asmnext.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.vitnagpur.edu.in/</t>
+  </si>
+  <si>
+    <t>http://www.gcoec.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.vidyaniketanglobal.com/</t>
+  </si>
+  <si>
+    <t>https://coek.dypgroup.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.tsdcem.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.sjrit.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.srespune.org/</t>
+  </si>
+  <si>
+    <t>https://mitaoe.ac.in/</t>
+  </si>
+  <si>
+    <t>https://rmcet.com/</t>
+  </si>
+  <si>
+    <t>https://www.mhssce.ac.in/</t>
+  </si>
+  <si>
+    <t>https://litu.edu.in/</t>
+  </si>
+  <si>
+    <t>http://sknsits.sinhgad.edu/</t>
+  </si>
+  <si>
+    <t>https://www.pict.edu/</t>
+  </si>
+  <si>
+    <t>https://siddhantcoe.in/</t>
+  </si>
+  <si>
+    <t>https://logmieer.edu.in/</t>
+  </si>
+  <si>
+    <t>https://sgvssatc.com/</t>
+  </si>
+  <si>
+    <t>https://www.adcet.ac.in/</t>
+  </si>
+  <si>
+    <t>https://ytiet.com/</t>
+  </si>
+  <si>
+    <t>https://famt.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.jamiapolytechnic.org/</t>
+  </si>
+  <si>
+    <t>https://www.coephaltan.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.stvincentngp.edu.in/</t>
+  </si>
+  <si>
+    <t>https://nikampolytechnicdhule.ac.in/</t>
+  </si>
+  <si>
+    <t>https://dpcoepune.edu.in/</t>
+  </si>
+  <si>
+    <t>https://dypatilunikop.org</t>
+  </si>
+  <si>
+    <t>https://ucer.edu.in</t>
+  </si>
+  <si>
+    <t>https://www.shahandanchor.com</t>
+  </si>
+  <si>
+    <t>https://jdcoem.ac.in</t>
+  </si>
+  <si>
+    <t>https://vishwaniketan.edu.in</t>
+  </si>
+  <si>
+    <t>https://www.pvpit.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.gcoen.ac.in</t>
+  </si>
+  <si>
+    <t>https://nmujal.ac.in/uict</t>
+  </si>
+  <si>
+    <t>https://www.bigbarshi.org</t>
+  </si>
+  <si>
+    <t>https://www.nbncoekegaon.ac.in</t>
+  </si>
+  <si>
+    <t>https://smspitr.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.ictmumbai.edu.in</t>
+  </si>
+  <si>
+    <t>https://www.anuradhaengg.org</t>
+  </si>
+  <si>
+    <t>https://coewpune.bharatividyapeeth.edu</t>
+  </si>
+  <si>
+    <t>https://www.djsce.ac.in</t>
+  </si>
+  <si>
+    <t>https://aecbeed.edu.in</t>
+  </si>
+  <si>
+    <t>https://www.sjcem.edu.in</t>
+  </si>
+  <si>
+    <t>https://drvkpcet.ac.in</t>
+  </si>
+  <si>
+    <t>https://sssimt.edu.in</t>
+  </si>
+  <si>
+    <t>https://www.ftccoe.ac.in</t>
+  </si>
+  <si>
+    <t>https://pcenagpur.edu.in</t>
+  </si>
+  <si>
+    <t>http://www.pgcoetn.org</t>
+  </si>
+  <si>
+    <t>https://www.rizvi.edu.in</t>
+  </si>
+  <si>
+    <t>https://ktpecet.edu.in</t>
+  </si>
+  <si>
+    <t>https://gcoey.ac.in</t>
+  </si>
+  <si>
+    <t>https://imperialcoe.org</t>
+  </si>
+  <si>
+    <t>https://pktechcampus.com</t>
+  </si>
+  <si>
+    <t>https://jcoet.ac.in</t>
+  </si>
+  <si>
+    <t>https://jjmcoe.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.gmcoepune.in</t>
+  </si>
+  <si>
+    <t>https://gcekolhapur.edu.in</t>
+  </si>
+  <si>
+    <t>https://nmiethere.org</t>
+  </si>
+  <si>
+    <t>https://www.spce.ac.in</t>
+  </si>
+  <si>
+    <t>https://csmssengg.org</t>
+  </si>
+  <si>
+    <t>https://www.pvgcoenashik.org</t>
+  </si>
+  <si>
+    <t>https://keystonecoe.org</t>
+  </si>
+  <si>
+    <t>https://kdkce.edu.in</t>
+  </si>
+  <si>
+    <t>https://isbmcoe.edu.in</t>
+  </si>
+  <si>
+    <t>https://drgitr.com</t>
+  </si>
+  <si>
+    <t>https://www.jspmrscoe.edu.in</t>
+  </si>
+  <si>
+    <t>https://www.navjeevanengg.org/</t>
+  </si>
+  <si>
+    <t>https://www.gramin.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.dattakala.com/</t>
+  </si>
+  <si>
+    <t>https://www.mukundlohia.org/</t>
+  </si>
+  <si>
+    <t>https://www.ssiems.org/</t>
+  </si>
+  <si>
+    <t>https://www.isquareit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.mmcoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.bitwardha.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.jondhale.com/</t>
+  </si>
+  <si>
+    <t>https://www.mgmmumbai.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.rvcoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sbjit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sipnaengg.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.gvacharya.com/</t>
+  </si>
+  <si>
+    <t>https://www.mietbhandara.org/</t>
+  </si>
+  <si>
+    <t>https://www.svitnashik.in/</t>
+  </si>
+  <si>
+    <t>https://www.mcoenashik.com/</t>
+  </si>
+  <si>
+    <t>https://www.wadiaengg.com/</t>
+  </si>
+  <si>
+    <t>https://www.scoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.bsit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.mce.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.diems.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.apshahworld.org/</t>
+  </si>
+  <si>
+    <t>https://www.ghrcem.raisoni.net/</t>
+  </si>
+  <si>
+    <t>https://www.vit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.terna.org/</t>
+  </si>
+  <si>
+    <t>https://www.sswcoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.trinityengg.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.brharne.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.csmit.in/</t>
+  </si>
+  <si>
+    <t>https://www.ssescet.org/</t>
+  </si>
+  <si>
+    <t>https://www.frcrce.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.sveri.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.jspm.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.aissmscoe.com/</t>
+  </si>
+  <si>
+    <t>https://www.bmit.co.in/</t>
+  </si>
+  <si>
+    <t>https://www.eaglewoodpolytechnic.com/</t>
+  </si>
+  <si>
+    <t>https://www.kolteengineering.com/</t>
+  </si>
+  <si>
+    <t>https://www.rhsapat.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.ycce.edu/</t>
+  </si>
+  <si>
+    <t>https://www.alardcollegeofengineering.com/</t>
+  </si>
+  <si>
+    <t>https://www.gcoea.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.jaincollege.org/</t>
+  </si>
+  <si>
+    <t>https://www.sgmcoe.in/</t>
+  </si>
+  <si>
+    <t>https://www.ssgbcoet.com/</t>
+  </si>
+  <si>
+    <t>https://www.mietashti.com/</t>
+  </si>
+  <si>
+    <t>https://www.walchandsangli.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.tcetmumbai.in/</t>
+  </si>
+  <si>
+    <t>https://www.atmait.com/</t>
+  </si>
+  <si>
+    <t>https://www.vvpcoe.org/</t>
+  </si>
+  <si>
+    <t>https://www.yashodatechnicalcampus.com/</t>
+  </si>
+  <si>
+    <t>https://www.iitwada.com/</t>
+  </si>
+  <si>
+    <t>https://www.vishwabharati.co.in/</t>
+  </si>
+  <si>
+    <t>https://www.wcem.in/</t>
+  </si>
+  <si>
+    <t>https://www.vtc.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sinhgad.edu/</t>
+  </si>
+  <si>
+    <t>https://www.svmce.in/</t>
+  </si>
+  <si>
+    <t>https://www.anjumanengg.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.gcoec.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.sahyadri.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sndt.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.sandipanitech.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.dypcoeakurdi.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.skngroups.org/</t>
+  </si>
+  <si>
+    <t>https://www.sitcoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.srtmun.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.sbgimiraj.com/</t>
+  </si>
+  <si>
+    <t>https://www.kkwagh.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.dtkuk.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.jspmnarhe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.gangamaiengg.org/</t>
+  </si>
+  <si>
+    <t>https://www.lrtiwari.com/</t>
+  </si>
+  <si>
+    <t>https://www.miot.in/</t>
+  </si>
+  <si>
+    <t>https://www.indalacollege.com/</t>
+  </si>
+  <si>
+    <t>https://www.dbit.in/</t>
+  </si>
+  <si>
+    <t>https://www.florainstitute.in/</t>
+  </si>
+  <si>
+    <t>https://www.scsme.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sfit.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.metbhujbalknowledgecity.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.bvcoenm.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.jesitmr.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.mithib.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.orchidengg.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.dacekarad.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.jietm.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.nhec.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.kbiet.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.jaihind.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.ggsrcoe.in/</t>
+  </si>
+  <si>
+    <t>https://www.bharatengg.com/</t>
+  </si>
+  <si>
+    <t>https://www.vcet.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.wiet.in/</t>
+  </si>
+  <si>
+    <t>https://www.mpcoe.in/</t>
+  </si>
+  <si>
+    <t>https://www.godavaricoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.udct.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.shatabdiengg.com/</t>
+  </si>
+  <si>
+    <t>https://www.ssgmce.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.vietalmala.com/</t>
+  </si>
+  <si>
+    <t>https://www.rscebuldhana.org/</t>
+  </si>
+  <si>
+    <t>https://www.kcem.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.ltce.in/</t>
+  </si>
+  <si>
+    <t>https://www.sandipfoundation.org/</t>
+  </si>
+  <si>
+    <t>https://www.nmcoe.in/</t>
+  </si>
+  <si>
+    <t>https://www.dypcoe.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.bvcoek.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.vit.edu/</t>
+  </si>
+  <si>
+    <t>https://www.sgbau.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.bsitkolhapur.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sspit.org/</t>
+  </si>
+  <si>
+    <t>https://www.spcoe.in/</t>
+  </si>
+  <si>
+    <t>https://www.kjcemr.com/</t>
+  </si>
+  <si>
+    <t>https://www.pescoe.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.lspgcoe.in/</t>
+  </si>
+  <si>
+    <t>https://www.pbce.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.spcod.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.ssit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.atharvacoe.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.aitrcvita.com/</t>
+  </si>
+  <si>
+    <t>https://www.pravaraengg.org.in/</t>
+  </si>
+  <si>
+    <t>https://www.dmce.in/</t>
+  </si>
+  <si>
+    <t>https://www.bitballarpur.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.gcekarad.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.viva-technology.org/</t>
+  </si>
+  <si>
+    <t>https://www.ghrce.raisoni.net/</t>
+  </si>
+  <si>
+    <t>https://www.kit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.kkits.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.icem.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.amolakcollege.com/</t>
+  </si>
+  <si>
+    <t>https://www.pillaihoc.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.rgcet.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.kalsekar.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.sigce.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.bmce.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.vesit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.vpmthane.org/</t>
+  </si>
+  <si>
+    <t>https://www.plgit.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.gcoeara.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.sanjivanicoe.org.in/</t>
+  </si>
+  <si>
+    <t>https://www.secengg.org/</t>
+  </si>
+  <si>
+    <t>https://www.amrutvahini.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.prmitr.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.mmit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sbpatilengg.in/</t>
+  </si>
+  <si>
+    <t>https://www.kbpcoes.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.ghrcemjalgaon.raisoni.net/</t>
+  </si>
+  <si>
+    <t>https://www.shriengg.com/</t>
+  </si>
+  <si>
+    <t>https://www.msitsbeed.com/</t>
+  </si>
+  <si>
+    <t>https://www.vjti.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.bpetc.com/</t>
+  </si>
+  <si>
+    <t>https://www.manavschool.org/</t>
+  </si>
+  <si>
+    <t>https://www.rscoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.hvpm.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.acpce.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.gniet.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.witsolapur.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.vdf.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.bncoe.org.in/</t>
+  </si>
+  <si>
+    <t>https://www.dypit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.bvcoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.met.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.tsec.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.jaywant.co.in/</t>
+  </si>
+  <si>
+    <t>https://www.mkdit.org/</t>
+  </si>
+  <si>
+    <t>https://www.sce.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.git.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.dytc.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.vvpie.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sspmcoe.com/</t>
+  </si>
+  <si>
+    <t>https://www.dcoe.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.cumminscollege.org/</t>
+  </si>
+  <si>
+    <t>https://www.sscet.in/</t>
+  </si>
+  <si>
+    <t>https://www.smrti.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sanghavicollege.com/</t>
+  </si>
+  <si>
+    <t>https://www.srpec.org/</t>
+  </si>
+  <si>
+    <t>https://www.nbnsinhgad.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.msbidve.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.dmcemce.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.aissmsioit.org/</t>
+  </si>
+  <si>
+    <t>https://www.skncoe.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.iceem.in/</t>
+  </si>
+  <si>
+    <t>https://www.driems.in/</t>
+  </si>
+  <si>
+    <t>https://www.mangaldeep.org/</t>
+  </si>
+  <si>
+    <t>https://www.coep.org.in/</t>
+  </si>
+  <si>
+    <t>https://www.siesgst.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.jdiet.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.diet.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.navsahyadri.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.aurangabadengg.com/</t>
+  </si>
+  <si>
+    <t>https://www.sit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.tkiets.org/</t>
+  </si>
+  <si>
+    <t>https://www.ytcem.com/</t>
+  </si>
+  <si>
+    <t>https://www.teichalkaranji.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.dnpatelcoe.org/</t>
+  </si>
+  <si>
+    <t>https://www.rcpit.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.pvgcoet.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.theemcoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.adshinde.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.nkspt.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sitrc.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.trimurti.org/</t>
+  </si>
+  <si>
+    <t>https://www.nit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.everest.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.stcet.org/</t>
+  </si>
+  <si>
+    <t>https://www.bpvtrust.org/</t>
+  </si>
+  <si>
+    <t>https://www.ternaengg.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.mgmcoe.in/</t>
+  </si>
+  <si>
+    <t>https://www.tgpcet.com/</t>
+  </si>
+  <si>
+    <t>https://www.nhitm.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.plitms.org/</t>
+  </si>
+  <si>
+    <t>https://www.lgnsapkal.org/</t>
+  </si>
+  <si>
+    <t>https://www.agce.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.rcpcoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.stc.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.lbsdeore.com/</t>
+  </si>
+  <si>
+    <t>https://www.ybit.in/</t>
+  </si>
+  <si>
+    <t>https://www.spit.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.rgitmumbai.org/</t>
+  </si>
+  <si>
+    <t>https://www.ashokitechnology.com/</t>
+  </si>
+  <si>
+    <t>https://www.bigce.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.vppcoe-va.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.pccoepune.org/</t>
+  </si>
+  <si>
+    <t>https://www.bscer.in/</t>
+  </si>
+  <si>
+    <t>https://www.suryodayacollege.com/</t>
+  </si>
+  <si>
+    <t>https://www.zealeducation.com/</t>
+  </si>
+  <si>
+    <t>https://www.kcescoe.org/</t>
+  </si>
+  <si>
+    <t>https://www.ictmumbai.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.mitr.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.apcer.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.shramsadhana.org/</t>
+  </si>
+  <si>
+    <t>https://www.pce.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.prpcet.org/</t>
+  </si>
+  <si>
+    <t>https://www.jit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.jmss.org/</t>
+  </si>
+  <si>
+    <t>https://www.sedcoe.org/</t>
+  </si>
+  <si>
+    <t>https://www.hitechengg.org/</t>
+  </si>
+  <si>
+    <t>https://www.pdea.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.svitnashik.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.dnyanvilas.org/</t>
+  </si>
+  <si>
+    <t>https://www.mmantc.org/</t>
+  </si>
+  <si>
+    <t>https://www.prpotepatil.com/</t>
+  </si>
+  <si>
+    <t>https://www.rgce.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.ritindia.edu/</t>
+  </si>
+  <si>
+    <t>https://www.tietdarapur.org/</t>
+  </si>
+  <si>
+    <t>https://www.fcrit.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.vpcoe.org/</t>
+  </si>
+  <si>
+    <t>https://www.aitdondaicha.org/</t>
+  </si>
+  <si>
+    <t>https://www.sndcoe.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.msscetjalna.org/</t>
+  </si>
+  <si>
+    <t>https://www.rajgad.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.pccoer.in/</t>
+  </si>
+  <si>
+    <t>https://www.agpit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.vncoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.kgce.in/</t>
+  </si>
+  <si>
+    <t>https://www.dbatu.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.cdsengg.com/</t>
+  </si>
+  <si>
+    <t>https://www.adyp.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.ymkcoe.org/</t>
+  </si>
+  <si>
+    <t>https://www.ashokraomane.com/</t>
+  </si>
+  <si>
+    <t>https://www.bdce.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.pgmoze.org/</t>
+  </si>
+  <si>
+    <t>https://www.sanmatice.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sggs.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.gmvit.org/</t>
+  </si>
+  <si>
+    <t>https://www.mit.asia/</t>
+  </si>
+  <si>
+    <t>https://www.matoshri.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.kccemsr.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.pvpit.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.mauligroup.org/</t>
+  </si>
+  <si>
+    <t>https://www.kbtcoe.org/</t>
+  </si>
+  <si>
+    <t>https://www.sgi.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.kitcoek.org/</t>
+  </si>
+  <si>
+    <t>https://www.jtmcoe.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.vicm.edu.in/</t>
+  </si>
+  <si>
+    <t>https://www.sarepatil.org/</t>
+  </si>
+  <si>
+    <t>https://nitkop.in/</t>
+  </si>
+  <si>
+    <t>https://acenagthana.ac.in/</t>
+  </si>
+  <si>
+    <t>https://www.gnitedu.in/</t>
+  </si>
+  <si>
+    <t>https://tsecmumbai.in/</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://mitm.ac.in/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2705,6 +3777,26 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2714,7 +3806,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2737,17 +3829,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3048,10 +4171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:E369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="E278" sqref="E278"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3059,9 +4182,10 @@
     <col min="2" max="2" width="6.77734375" customWidth="1"/>
     <col min="3" max="3" width="108.5546875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3074,8 +4198,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3088,8 +4215,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3102,8 +4232,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="6" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3116,8 +4249,11 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3130,8 +4266,11 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3144,8 +4283,11 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3158,8 +4300,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3172,8 +4317,11 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3186,8 +4334,11 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3200,8 +4351,11 @@
       <c r="D10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3214,8 +4368,11 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3228,8 +4385,11 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3242,8 +4402,11 @@
       <c r="D13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3256,8 +4419,11 @@
       <c r="D14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3270,8 +4436,11 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3284,8 +4453,11 @@
       <c r="D16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3298,8 +4470,11 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3312,8 +4487,11 @@
       <c r="D18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3326,8 +4504,11 @@
       <c r="D19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3340,8 +4521,11 @@
       <c r="D20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3354,8 +4538,11 @@
       <c r="D21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3368,8 +4555,11 @@
       <c r="D22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3382,8 +4572,11 @@
       <c r="D23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3396,8 +4589,11 @@
       <c r="D24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3410,8 +4606,11 @@
       <c r="D25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3424,8 +4623,11 @@
       <c r="D26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3438,8 +4640,11 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3452,8 +4657,11 @@
       <c r="D28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="6" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3466,8 +4674,11 @@
       <c r="D29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3480,8 +4691,11 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3494,8 +4708,11 @@
       <c r="D31" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3508,8 +4725,11 @@
       <c r="D32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="6" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3522,8 +4742,11 @@
       <c r="D33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3536,8 +4759,11 @@
       <c r="D34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="6" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3550,8 +4776,11 @@
       <c r="D35" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3564,8 +4793,11 @@
       <c r="D36" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3578,8 +4810,11 @@
       <c r="D37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3592,8 +4827,11 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3606,8 +4844,11 @@
       <c r="D39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3620,8 +4861,11 @@
       <c r="D40" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3634,8 +4878,11 @@
       <c r="D41" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="7" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3648,8 +4895,11 @@
       <c r="D42" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3662,8 +4912,11 @@
       <c r="D43" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3676,8 +4929,11 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3690,8 +4946,11 @@
       <c r="D45" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3704,8 +4963,11 @@
       <c r="D46" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3718,8 +4980,11 @@
       <c r="D47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3732,8 +4997,11 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3746,8 +5014,11 @@
       <c r="D49" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3760,8 +5031,11 @@
       <c r="D50" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3774,8 +5048,11 @@
       <c r="D51" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3788,8 +5065,11 @@
       <c r="D52" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="7" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3802,8 +5082,11 @@
       <c r="D53" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="7" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3816,8 +5099,11 @@
       <c r="D54" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3830,8 +5116,11 @@
       <c r="D55" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="7" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3844,8 +5133,11 @@
       <c r="D56" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="7" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3858,8 +5150,11 @@
       <c r="D57" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="7" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3872,8 +5167,11 @@
       <c r="D58" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="7" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3886,8 +5184,11 @@
       <c r="D59" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="7" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3900,8 +5201,11 @@
       <c r="D60" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3914,8 +5218,11 @@
       <c r="D61" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="7" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3928,8 +5235,11 @@
       <c r="D62" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="7" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3942,8 +5252,11 @@
       <c r="D63" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="7" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3956,8 +5269,11 @@
       <c r="D64" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="7" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3970,8 +5286,11 @@
       <c r="D65" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="7" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3984,8 +5303,11 @@
       <c r="D66" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="7" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3998,8 +5320,11 @@
       <c r="D67" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4012,8 +5337,11 @@
       <c r="D68" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="7" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4026,8 +5354,11 @@
       <c r="D69" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="7" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4040,8 +5371,11 @@
       <c r="D70" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="7" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4054,8 +5388,11 @@
       <c r="D71" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="7" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4068,8 +5405,11 @@
       <c r="D72" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4082,8 +5422,11 @@
       <c r="D73" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="7" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4096,8 +5439,11 @@
       <c r="D74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="7" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4110,8 +5456,11 @@
       <c r="D75" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4124,8 +5473,11 @@
       <c r="D76" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4138,8 +5490,11 @@
       <c r="D77" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="7" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4152,8 +5507,11 @@
       <c r="D78" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="7" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4166,8 +5524,11 @@
       <c r="D79" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="7" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4180,8 +5541,11 @@
       <c r="D80" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="7" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4194,8 +5558,11 @@
       <c r="D81" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4208,8 +5575,11 @@
       <c r="D82" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="6" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4222,8 +5592,11 @@
       <c r="D83" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4236,8 +5609,11 @@
       <c r="D84" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" s="6" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4250,8 +5626,11 @@
       <c r="D85" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4264,8 +5643,11 @@
       <c r="D86" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" s="6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4278,8 +5660,11 @@
       <c r="D87" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" s="6" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4292,8 +5677,11 @@
       <c r="D88" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" s="6" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4306,8 +5694,11 @@
       <c r="D89" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" s="6" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4320,8 +5711,11 @@
       <c r="D90" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4334,8 +5728,11 @@
       <c r="D91" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4348,8 +5745,11 @@
       <c r="D92" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" s="6" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4362,8 +5762,11 @@
       <c r="D93" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4376,8 +5779,11 @@
       <c r="D94" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4390,8 +5796,11 @@
       <c r="D95" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4404,8 +5813,11 @@
       <c r="D96" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" s="6" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4418,8 +5830,11 @@
       <c r="D97" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" s="6" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4432,8 +5847,11 @@
       <c r="D98" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4446,8 +5864,11 @@
       <c r="D99" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4460,8 +5881,11 @@
       <c r="D100" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" s="6" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4474,8 +5898,11 @@
       <c r="D101" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" s="6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4488,8 +5915,11 @@
       <c r="D102" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4502,8 +5932,11 @@
       <c r="D103" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" s="6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4516,8 +5949,11 @@
       <c r="D104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="6" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4530,8 +5966,11 @@
       <c r="D105" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4544,8 +5983,11 @@
       <c r="D106" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" s="6" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4558,8 +6000,11 @@
       <c r="D107" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4572,8 +6017,11 @@
       <c r="D108" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4586,8 +6034,11 @@
       <c r="D109" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4600,8 +6051,11 @@
       <c r="D110" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" s="6" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4614,8 +6068,11 @@
       <c r="D111" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" s="6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4628,8 +6085,11 @@
       <c r="D112" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" s="6" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4642,8 +6102,11 @@
       <c r="D113" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4656,8 +6119,11 @@
       <c r="D114" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" s="6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4670,8 +6136,11 @@
       <c r="D115" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" s="6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4684,8 +6153,11 @@
       <c r="D116" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4698,8 +6170,11 @@
       <c r="D117" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4712,8 +6187,11 @@
       <c r="D118" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4726,8 +6204,11 @@
       <c r="D119" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" s="6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4740,8 +6221,11 @@
       <c r="D120" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4754,8 +6238,11 @@
       <c r="D121" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4768,8 +6255,11 @@
       <c r="D122" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4782,8 +6272,11 @@
       <c r="D123" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4796,8 +6289,11 @@
       <c r="D124" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4810,8 +6306,11 @@
       <c r="D125" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4824,8 +6323,11 @@
       <c r="D126" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4838,8 +6340,11 @@
       <c r="D127" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4852,8 +6357,11 @@
       <c r="D128" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4866,8 +6374,11 @@
       <c r="D129" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4880,8 +6391,11 @@
       <c r="D130" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4894,8 +6408,11 @@
       <c r="D131" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4908,8 +6425,11 @@
       <c r="D132" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4922,8 +6442,11 @@
       <c r="D133" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4936,8 +6459,11 @@
       <c r="D134" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4950,8 +6476,11 @@
       <c r="D135" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4964,8 +6493,11 @@
       <c r="D136" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4978,8 +6510,11 @@
       <c r="D137" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4992,8 +6527,11 @@
       <c r="D138" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5006,8 +6544,11 @@
       <c r="D139" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5020,8 +6561,11 @@
       <c r="D140" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5034,8 +6578,11 @@
       <c r="D141" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5048,8 +6595,11 @@
       <c r="D142" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5062,8 +6612,11 @@
       <c r="D143" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5076,8 +6629,11 @@
       <c r="D144" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5090,8 +6646,11 @@
       <c r="D145" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5104,8 +6663,11 @@
       <c r="D146" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5118,8 +6680,11 @@
       <c r="D147" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5132,8 +6697,11 @@
       <c r="D148" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5146,8 +6714,11 @@
       <c r="D149" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5160,8 +6731,11 @@
       <c r="D150" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5174,8 +6748,11 @@
       <c r="D151" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5188,8 +6765,11 @@
       <c r="D152" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5202,8 +6782,11 @@
       <c r="D153" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5216,8 +6799,11 @@
       <c r="D154" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5230,8 +6816,11 @@
       <c r="D155" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5244,8 +6833,11 @@
       <c r="D156" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5258,8 +6850,11 @@
       <c r="D157" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5272,8 +6867,11 @@
       <c r="D158" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5286,8 +6884,11 @@
       <c r="D159" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5300,8 +6901,11 @@
       <c r="D160" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5314,8 +6918,11 @@
       <c r="D161" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5328,8 +6935,11 @@
       <c r="D162" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5342,8 +6952,11 @@
       <c r="D163" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5356,8 +6969,11 @@
       <c r="D164" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5370,8 +6986,11 @@
       <c r="D165" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5384,8 +7003,11 @@
       <c r="D166" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5398,8 +7020,11 @@
       <c r="D167" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5412,8 +7037,11 @@
       <c r="D168" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5426,8 +7054,11 @@
       <c r="D169" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5440,8 +7071,11 @@
       <c r="D170" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5454,8 +7088,11 @@
       <c r="D171" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5468,8 +7105,11 @@
       <c r="D172" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5482,8 +7122,11 @@
       <c r="D173" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5496,8 +7139,11 @@
       <c r="D174" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5510,8 +7156,11 @@
       <c r="D175" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5524,8 +7173,11 @@
       <c r="D176" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5538,8 +7190,11 @@
       <c r="D177" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5552,8 +7207,11 @@
       <c r="D178" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5566,8 +7224,11 @@
       <c r="D179" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5580,8 +7241,11 @@
       <c r="D180" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5594,8 +7258,11 @@
       <c r="D181" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5608,8 +7275,11 @@
       <c r="D182" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5622,8 +7292,11 @@
       <c r="D183" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5636,8 +7309,11 @@
       <c r="D184" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5650,8 +7326,11 @@
       <c r="D185" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5664,8 +7343,11 @@
       <c r="D186" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5678,8 +7360,11 @@
       <c r="D187" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5692,8 +7377,11 @@
       <c r="D188" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5706,8 +7394,11 @@
       <c r="D189" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5720,8 +7411,11 @@
       <c r="D190" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5734,8 +7428,11 @@
       <c r="D191" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5748,8 +7445,11 @@
       <c r="D192" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5762,8 +7462,11 @@
       <c r="D193" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5776,8 +7479,11 @@
       <c r="D194" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5790,8 +7496,11 @@
       <c r="D195" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5804,8 +7513,11 @@
       <c r="D196" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5818,8 +7530,11 @@
       <c r="D197" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5832,8 +7547,11 @@
       <c r="D198" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5846,8 +7564,11 @@
       <c r="D199" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5860,8 +7581,11 @@
       <c r="D200" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5874,8 +7598,11 @@
       <c r="D201" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5888,8 +7615,11 @@
       <c r="D202" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5902,8 +7632,11 @@
       <c r="D203" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5916,8 +7649,11 @@
       <c r="D204" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5930,8 +7666,11 @@
       <c r="D205" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5944,8 +7683,11 @@
       <c r="D206" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5958,8 +7700,11 @@
       <c r="D207" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5972,8 +7717,11 @@
       <c r="D208" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5986,8 +7734,11 @@
       <c r="D209" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6000,8 +7751,11 @@
       <c r="D210" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6014,8 +7768,11 @@
       <c r="D211" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6028,8 +7785,11 @@
       <c r="D212" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6042,8 +7802,11 @@
       <c r="D213" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6056,8 +7819,11 @@
       <c r="D214" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6070,8 +7836,11 @@
       <c r="D215" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6084,8 +7853,11 @@
       <c r="D216" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6098,8 +7870,11 @@
       <c r="D217" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6112,8 +7887,11 @@
       <c r="D218" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6126,8 +7904,11 @@
       <c r="D219" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6140,8 +7921,11 @@
       <c r="D220" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6154,8 +7938,11 @@
       <c r="D221" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6168,8 +7955,11 @@
       <c r="D222" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E222" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6182,8 +7972,11 @@
       <c r="D223" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E223" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6196,8 +7989,11 @@
       <c r="D224" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6210,8 +8006,11 @@
       <c r="D225" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6224,8 +8023,11 @@
       <c r="D226" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E226" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6238,8 +8040,11 @@
       <c r="D227" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E227" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6252,8 +8057,11 @@
       <c r="D228" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6266,8 +8074,11 @@
       <c r="D229" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E229" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6280,8 +8091,11 @@
       <c r="D230" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E230" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6294,8 +8108,11 @@
       <c r="D231" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6308,8 +8125,11 @@
       <c r="D232" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6322,8 +8142,11 @@
       <c r="D233" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6336,8 +8159,11 @@
       <c r="D234" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6350,8 +8176,11 @@
       <c r="D235" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E235" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6364,8 +8193,11 @@
       <c r="D236" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6378,8 +8210,11 @@
       <c r="D237" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6392,8 +8227,11 @@
       <c r="D238" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E238" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6406,8 +8244,11 @@
       <c r="D239" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6420,8 +8261,11 @@
       <c r="D240" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6434,8 +8278,11 @@
       <c r="D241" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6448,8 +8295,11 @@
       <c r="D242" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6462,8 +8312,11 @@
       <c r="D243" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E243" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6476,8 +8329,11 @@
       <c r="D244" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6490,8 +8346,11 @@
       <c r="D245" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E245" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6504,8 +8363,11 @@
       <c r="D246" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E246" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6518,8 +8380,11 @@
       <c r="D247" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E247" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6532,8 +8397,11 @@
       <c r="D248" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E248" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6546,8 +8414,11 @@
       <c r="D249" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E249" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6560,8 +8431,11 @@
       <c r="D250" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E250" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6574,8 +8448,11 @@
       <c r="D251" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E251" s="3" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6588,8 +8465,11 @@
       <c r="D252" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E252" s="3" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6602,8 +8482,11 @@
       <c r="D253" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253" s="3" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6616,8 +8499,11 @@
       <c r="D254" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E254" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6630,8 +8516,11 @@
       <c r="D255" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E255" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6644,8 +8533,11 @@
       <c r="D256" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E256" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6658,8 +8550,11 @@
       <c r="D257" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E257" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6672,8 +8567,11 @@
       <c r="D258" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6686,8 +8584,11 @@
       <c r="D259" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E259" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6700,8 +8601,11 @@
       <c r="D260" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E260" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6714,8 +8618,11 @@
       <c r="D261" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E261" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6728,8 +8635,11 @@
       <c r="D262" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E262" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6742,8 +8652,11 @@
       <c r="D263" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E263" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6756,8 +8669,11 @@
       <c r="D264" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E264" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6770,8 +8686,11 @@
       <c r="D265" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E265" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6784,8 +8703,11 @@
       <c r="D266" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E266" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6798,8 +8720,11 @@
       <c r="D267" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E267" s="3" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6812,8 +8737,11 @@
       <c r="D268" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E268" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6826,8 +8754,11 @@
       <c r="D269" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E269" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6840,8 +8771,11 @@
       <c r="D270" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E270" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6854,8 +8788,11 @@
       <c r="D271" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E271" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6868,8 +8805,11 @@
       <c r="D272" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E272" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6882,8 +8822,11 @@
       <c r="D273" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E273" s="3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6896,8 +8839,11 @@
       <c r="D274" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E274" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6910,8 +8856,11 @@
       <c r="D275" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E275" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6924,8 +8873,11 @@
       <c r="D276" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E276" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6938,8 +8890,11 @@
       <c r="D277" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E277" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6952,8 +8907,11 @@
       <c r="D278" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E278" s="3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6966,8 +8924,11 @@
       <c r="D279" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E279" s="3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6980,8 +8941,11 @@
       <c r="D280" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E280" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6994,8 +8958,11 @@
       <c r="D281" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E281" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -7008,8 +8975,11 @@
       <c r="D282" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E282" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -7022,8 +8992,11 @@
       <c r="D283" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E283" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -7036,8 +9009,11 @@
       <c r="D284" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E284" s="3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -7050,8 +9026,11 @@
       <c r="D285" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E285" s="3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7064,8 +9043,11 @@
       <c r="D286" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E286" s="3" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7078,8 +9060,11 @@
       <c r="D287" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E287" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7092,8 +9077,11 @@
       <c r="D288" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E288" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7106,8 +9094,11 @@
       <c r="D289" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E289" s="3" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -7120,8 +9111,11 @@
       <c r="D290" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E290" s="3" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7134,8 +9128,11 @@
       <c r="D291" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E291" s="3" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -7148,8 +9145,11 @@
       <c r="D292" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E292" s="3" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -7162,8 +9162,11 @@
       <c r="D293" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E293" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -7176,8 +9179,11 @@
       <c r="D294" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E294" s="3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -7190,8 +9196,11 @@
       <c r="D295" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E295" s="3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -7204,8 +9213,11 @@
       <c r="D296" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E296" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -7218,8 +9230,11 @@
       <c r="D297" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E297" s="3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -7232,8 +9247,11 @@
       <c r="D298" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E298" s="3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -7246,8 +9264,11 @@
       <c r="D299" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E299" s="3" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -7260,8 +9281,11 @@
       <c r="D300" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E300" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -7274,8 +9298,11 @@
       <c r="D301" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E301" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -7288,8 +9315,11 @@
       <c r="D302" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E302" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -7302,8 +9332,11 @@
       <c r="D303" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E303" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -7316,8 +9349,11 @@
       <c r="D304" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E304" s="3" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -7330,8 +9366,11 @@
       <c r="D305" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E305" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -7344,8 +9383,11 @@
       <c r="D306" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E306" s="3" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -7358,8 +9400,11 @@
       <c r="D307" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E307" s="3" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -7372,8 +9417,11 @@
       <c r="D308" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E308" s="3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -7386,8 +9434,11 @@
       <c r="D309" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E309" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -7400,8 +9451,11 @@
       <c r="D310" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E310" s="3" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -7414,8 +9468,11 @@
       <c r="D311" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E311" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -7428,8 +9485,11 @@
       <c r="D312" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E312" s="3" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -7442,8 +9502,11 @@
       <c r="D313" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E313" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -7456,8 +9519,11 @@
       <c r="D314" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E314" s="3" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -7470,8 +9536,11 @@
       <c r="D315" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E315" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -7484,8 +9553,11 @@
       <c r="D316" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E316" s="3" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -7498,8 +9570,11 @@
       <c r="D317" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E317" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -7512,8 +9587,11 @@
       <c r="D318" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E318" s="3" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -7526,8 +9604,11 @@
       <c r="D319" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E319" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -7540,8 +9621,11 @@
       <c r="D320" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E320" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -7554,8 +9638,11 @@
       <c r="D321" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E321" s="3" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -7568,8 +9655,11 @@
       <c r="D322" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E322" s="3" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -7582,8 +9672,11 @@
       <c r="D323" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E323" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -7596,8 +9689,11 @@
       <c r="D324" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E324" s="3" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -7610,8 +9706,11 @@
       <c r="D325" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E325" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -7624,8 +9723,11 @@
       <c r="D326" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E326" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -7638,8 +9740,11 @@
       <c r="D327" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E327" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -7652,8 +9757,11 @@
       <c r="D328" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E328" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -7666,8 +9774,11 @@
       <c r="D329" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E329" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -7680,8 +9791,11 @@
       <c r="D330" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E330" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -7694,8 +9808,11 @@
       <c r="D331" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E331" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -7708,8 +9825,11 @@
       <c r="D332" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E332" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -7722,8 +9842,11 @@
       <c r="D333" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E333" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -7736,8 +9859,11 @@
       <c r="D334" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E334" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -7750,8 +9876,11 @@
       <c r="D335" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E335" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -7764,8 +9893,11 @@
       <c r="D336" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E336" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -7778,8 +9910,11 @@
       <c r="D337" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E337" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -7792,8 +9927,11 @@
       <c r="D338" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E338" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -7806,8 +9944,11 @@
       <c r="D339" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E339" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -7820,8 +9961,11 @@
       <c r="D340" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E340" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -7834,8 +9978,11 @@
       <c r="D341" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E341" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -7848,8 +9995,11 @@
       <c r="D342" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E342" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -7862,8 +10012,11 @@
       <c r="D343" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E343" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -7876,8 +10029,11 @@
       <c r="D344" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E344" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -7890,8 +10046,11 @@
       <c r="D345" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E345" s="3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -7904,8 +10063,11 @@
       <c r="D346" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E346" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -7918,8 +10080,11 @@
       <c r="D347" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E347" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7932,8 +10097,11 @@
       <c r="D348" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E348" s="3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -7946,8 +10114,11 @@
       <c r="D349" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E349" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -7960,8 +10131,11 @@
       <c r="D350" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E350" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -7974,8 +10148,11 @@
       <c r="D351" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E351" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -7988,8 +10165,11 @@
       <c r="D352" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E352" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -8002,8 +10182,11 @@
       <c r="D353" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E353" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -8016,8 +10199,11 @@
       <c r="D354" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E354" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -8030,8 +10216,11 @@
       <c r="D355" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E355" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -8044,8 +10233,11 @@
       <c r="D356" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E356" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -8058,8 +10250,11 @@
       <c r="D357" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E357" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -8072,8 +10267,11 @@
       <c r="D358" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E358" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -8086,8 +10284,11 @@
       <c r="D359" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E359" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -8100,8 +10301,11 @@
       <c r="D360" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E360" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -8114,8 +10318,11 @@
       <c r="D361" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E361" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -8128,8 +10335,11 @@
       <c r="D362" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E362" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -8142,8 +10352,11 @@
       <c r="D363" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E363" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -8156,8 +10369,11 @@
       <c r="D364" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E364" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -8170,8 +10386,11 @@
       <c r="D365" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E365" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -8184,8 +10403,11 @@
       <c r="D366" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E366" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -8198,8 +10420,11 @@
       <c r="D367" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E367" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -8212,8 +10437,11 @@
       <c r="D368" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E368" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -8226,8 +10454,17 @@
       <c r="D369" t="s">
         <v>881</v>
       </c>
+      <c r="E369" s="4" t="s">
+        <v>1240</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E369" r:id="rId1" xr:uid="{09940B7D-44DA-4D91-AC22-AAA4DEBD2AF5}"/>
+    <hyperlink ref="E120" r:id="rId2" xr:uid="{98B5544B-22BD-413C-B459-D992CDB0EDE3}"/>
+    <hyperlink ref="E187" r:id="rId3" xr:uid="{C3A2A759-441D-4FCC-8B2B-F5201CAAF44D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>